--- a/results/YA_TEST_lang_new_new_new.xlsx
+++ b/results/YA_TEST_lang_new_new_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="9045" windowHeight="13650"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="11340" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="44">
   <si>
     <t>BLOCK</t>
   </si>
@@ -62,79 +62,100 @@
     <t>S</t>
   </si>
   <si>
+    <t>011_fSF_1.25.wav</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>001_fSF_0.75.wav</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>SNR2</t>
   </si>
   <si>
-    <t>006_fSM_1.0_SNR2.wav</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>008_fOF_0.75_SNR2.wav</t>
+    <t>011_fOM_0.75_SNR2.wav</t>
   </si>
   <si>
     <t>SNR-2</t>
   </si>
   <si>
-    <t>004_fSM_0.75_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>001_fSF_1.0_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>008_fSM_1.25.wav</t>
+    <t>009_fOM_1.25_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>silence01.wav</t>
+  </si>
+  <si>
+    <t>005_fOM_1.25.wav</t>
+  </si>
+  <si>
+    <t>001_fSF_0.75_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>002_fSM_0.75_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>noise_rate_075.wav</t>
+  </si>
+  <si>
+    <t>008_fOF_1.25_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>001_fOM_1.25_SNR2.wav</t>
+  </si>
+  <si>
+    <t>012_fSM_0.75.wav</t>
+  </si>
+  <si>
+    <t>010_fSM_1.25_SNR2.wav</t>
+  </si>
+  <si>
+    <t>006_fOF_1.25.wav</t>
+  </si>
+  <si>
+    <t>002_fOF_1.25_SNR2.wav</t>
+  </si>
+  <si>
+    <t>006_fOF_0.75_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>005_fOM_0.75.wav</t>
+  </si>
+  <si>
+    <t>007_fOM_0.75_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>010_fSM_1.25.wav</t>
+  </si>
+  <si>
+    <t>003_fSF_0.75_SNR2.wav</t>
+  </si>
+  <si>
+    <t>noise_rate_125.wav</t>
+  </si>
+  <si>
+    <t>005_fSF_1.25_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>012_fOF_0.75_SNR2.wav</t>
+  </si>
+  <si>
+    <t>004_fOF_0.75.wav</t>
   </si>
   <si>
     <t>009_fSF_1.25_SNR2.wav</t>
   </si>
   <si>
-    <t>silence01.wav</t>
-  </si>
-  <si>
-    <t>007_fSF_0.75.wav</t>
-  </si>
-  <si>
-    <t>002_fSM_1.0.wav</t>
-  </si>
-  <si>
-    <t>007_fOM_1.25.wav</t>
-  </si>
-  <si>
-    <t>002_fOF_0.75_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>noise.wav</t>
-  </si>
-  <si>
-    <t>005_fSF_0.75_SNR2.wav</t>
-  </si>
-  <si>
-    <t>009_fOM_1.25_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>004_fOF_1.0_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>006_fOF_0.75.wav</t>
-  </si>
-  <si>
-    <t>003_fSF_1.25_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>005_fOM_1.0_SNR2.wav</t>
-  </si>
-  <si>
-    <t>001_fOM_1.25_SNR2.wav</t>
-  </si>
-  <si>
-    <t>003_fOM_1.0.wav</t>
+    <t>002_fSM_0.75_SNR2.wav</t>
+  </si>
+  <si>
+    <t>006_fSM_1.25_SNR-2.wav</t>
   </si>
 </sst>
 </file>
@@ -452,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K181"/>
+      <selection sqref="A1:K169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,18 +523,15 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>1.25</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2">
         <v>0.1</v>
       </c>
@@ -521,13 +539,13 @@
         <v>0.1</v>
       </c>
       <c r="I2">
-        <v>12.1767</v>
+        <v>11.001200000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -535,19 +553,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>0.75</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -556,13 +571,13 @@
         <v>0.1</v>
       </c>
       <c r="I3">
-        <v>12.046799999999999</v>
+        <v>11.001300000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -570,34 +585,34 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0.75</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0.10006</v>
       </c>
       <c r="I4">
-        <v>12.1311</v>
+        <v>11.001099999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -605,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -626,13 +641,13 @@
         <v>0.1</v>
       </c>
       <c r="I5">
-        <v>12.0608</v>
+        <v>11.001099999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -642,11 +657,14 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>1.25</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -658,13 +676,13 @@
         <v>0.1</v>
       </c>
       <c r="I6">
-        <v>12.241300000000001</v>
+        <v>11.001300000000001</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -672,16 +690,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1.25</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -693,13 +708,13 @@
         <v>0.1</v>
       </c>
       <c r="I7">
-        <v>12.3528</v>
+        <v>11.0014</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -710,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -728,13 +743,13 @@
         <v>0.1</v>
       </c>
       <c r="I8">
-        <v>12.1431</v>
+        <v>11.0038</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -744,11 +759,14 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
       <c r="D9">
         <v>0.75</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -760,13 +778,13 @@
         <v>0.1</v>
       </c>
       <c r="I9">
-        <v>13.552899999999999</v>
+        <v>11.000999999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -774,16 +792,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -792,13 +813,13 @@
         <v>0.1</v>
       </c>
       <c r="I10">
-        <v>11.263999999999999</v>
+        <v>11.0024</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -808,29 +829,32 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
       <c r="D11">
         <v>1.25</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>0.1</v>
       </c>
       <c r="H11">
-        <v>0.10005</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <v>11.731</v>
+        <v>11.0007</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -841,16 +865,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -859,13 +883,13 @@
         <v>0.1</v>
       </c>
       <c r="I12">
-        <v>12.3309</v>
+        <v>11.0009</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -873,16 +897,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -894,13 +915,13 @@
         <v>0.1</v>
       </c>
       <c r="I13">
-        <v>12.8841</v>
+        <v>11.0009</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -911,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -929,13 +950,13 @@
         <v>0.1</v>
       </c>
       <c r="I14">
-        <v>12.396000000000001</v>
+        <v>11.0008</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -945,14 +966,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
       <c r="D15">
         <v>1.25</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -964,13 +982,13 @@
         <v>0.1</v>
       </c>
       <c r="I15">
-        <v>12.579000000000001</v>
+        <v>11.001200000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,13 +999,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -999,13 +1017,13 @@
         <v>0.1</v>
       </c>
       <c r="I16">
-        <v>11.294</v>
+        <v>11.001300000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1015,6 +1033,9 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
       <c r="D17">
         <v>0.75</v>
       </c>
@@ -1031,13 +1052,13 @@
         <v>0.1</v>
       </c>
       <c r="I17">
-        <v>12.337999999999999</v>
+        <v>11.000999999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1048,16 +1069,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>1.25</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -1066,13 +1087,13 @@
         <v>0.1</v>
       </c>
       <c r="I18">
-        <v>12.636900000000001</v>
+        <v>11.001200000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,32 +1103,29 @@
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>0.1</v>
       </c>
       <c r="H19">
-        <v>0.10106999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I19">
-        <v>13.0731</v>
+        <v>11.0009</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1118,16 +1136,16 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -1136,13 +1154,13 @@
         <v>0.1</v>
       </c>
       <c r="I20">
-        <v>12.8331</v>
+        <v>11.0091</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,31 +1168,308 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>1.25</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <v>11.001200000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <v>11.0008</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="I23">
+        <v>11.0008</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>1.25</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="I24">
+        <v>11.000999999999999</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>0.75</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>11.0008</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>0.75</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <v>11.001200000000001</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>1.25</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.1</v>
+      </c>
+      <c r="I27">
+        <v>11.003399999999999</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>0.75</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.1</v>
+      </c>
+      <c r="I28">
+        <v>11.000999999999999</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>1.25</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0.10068000000000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
